--- a/Output Proveedores Xepelin.xlsx
+++ b/Output Proveedores Xepelin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="105">
   <si>
     <t>Cuenta</t>
   </si>
@@ -315,24 +315,6 @@
   </si>
   <si>
     <t>Vencimientos</t>
-  </si>
-  <si>
-    <t>2022-07-25</t>
-  </si>
-  <si>
-    <t>2022-08-10</t>
-  </si>
-  <si>
-    <t>2022-08-25</t>
-  </si>
-  <si>
-    <t>2022-09-12</t>
-  </si>
-  <si>
-    <t>2022-09-26</t>
-  </si>
-  <si>
-    <t>2022-10-11</t>
   </si>
   <si>
     <t>KITCHEN CENTER SPA</t>
@@ -18747,7 +18729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E46"/>
+  <dimension ref="B3:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18776,383 +18758,306 @@
         <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2">
-        <v>-20835681</v>
+        <v>-128970369</v>
       </c>
       <c r="D5" s="2">
         <v>3362928</v>
       </c>
       <c r="E5" s="2">
-        <v>17472753</v>
+        <v>125607441</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2">
-        <v>-58040136</v>
+        <v>-94775695</v>
       </c>
       <c r="E6" s="2">
-        <v>58040136</v>
+        <v>94775695</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2">
-        <v>-50094552</v>
+        <v>-9721773</v>
       </c>
       <c r="E7" s="2">
-        <v>50094552</v>
+        <v>9721773</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2">
-        <v>-94775695</v>
+        <v>-5299473</v>
       </c>
       <c r="E8" s="2">
-        <v>94775695</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+        <v>5299473</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-9721773</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9721773</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-5299473</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5299473</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-43322689</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2173887</v>
+      </c>
+      <c r="E13" s="2">
+        <v>41148802</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-506964</v>
+      </c>
+      <c r="E14" s="2">
+        <v>506964</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2">
-        <v>-41083074</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2173887</v>
+        <v>-352632</v>
       </c>
       <c r="E15" s="2">
-        <v>38909187</v>
+        <v>352632</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2">
-        <v>-2239615</v>
+        <v>-243982</v>
       </c>
       <c r="E16" s="2">
-        <v>2239615</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-506964</v>
-      </c>
-      <c r="E17" s="2">
-        <v>506964</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-352632</v>
-      </c>
-      <c r="E18" s="2">
-        <v>352632</v>
+        <v>243982</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-243982</v>
-      </c>
-      <c r="E19" s="2">
-        <v>243982</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-131917081</v>
+      </c>
+      <c r="D21" s="2">
+        <v>30739273</v>
+      </c>
+      <c r="E21" s="2">
+        <v>101177808</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-1868634</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1868634</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-74220570</v>
+      </c>
+      <c r="E23" s="2">
+        <v>74220570</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2">
-        <v>-23623880</v>
-      </c>
-      <c r="D24" s="2">
-        <v>30739273</v>
+        <v>-7488797</v>
       </c>
       <c r="E24" s="2">
-        <v>-7115393</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-104409966</v>
-      </c>
-      <c r="E25" s="2">
-        <v>104409966</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-3883235</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3883235</v>
+        <v>7488797</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-1868634</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1868634</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-74220570</v>
-      </c>
-      <c r="E28" s="2">
-        <v>74220570</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2">
-        <v>-7488797</v>
+        <v>-43859886</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2887481</v>
       </c>
       <c r="E29" s="2">
-        <v>7488797</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>110</v>
+        <v>40972405</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-35322551</v>
+      </c>
+      <c r="E30" s="2">
+        <v>35322551</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-255493</v>
+      </c>
+      <c r="E31" s="2">
+        <v>255493</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-41553447</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2887481</v>
-      </c>
-      <c r="E34" s="2">
-        <v>38665966</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-2306439</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2306439</v>
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2">
-        <v>-35322551</v>
+        <v>-1639121635</v>
+      </c>
+      <c r="D36" s="2">
+        <v>33777945</v>
       </c>
       <c r="E36" s="2">
-        <v>35322551</v>
+        <v>1605343690</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2">
-        <v>-255493</v>
+        <v>-16388868</v>
       </c>
       <c r="E37" s="2">
-        <v>255493</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-1617681367</v>
-      </c>
-      <c r="D42" s="2">
-        <v>33777945</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1583903422</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-21440268</v>
-      </c>
-      <c r="E43" s="2">
-        <v>21440268</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-16388868</v>
-      </c>
-      <c r="E44" s="2">
         <v>16388868</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="2">
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2">
         <v>-10513532</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E38" s="2">
         <v>10513532</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2">
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2">
         <v>-556769672</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E39" s="2">
         <v>556769672</v>
       </c>
     </row>
